--- a/InferenceSemantics/LinearRegression/results/Book1.xlsx
+++ b/InferenceSemantics/LinearRegression/results/Book1.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>BLR</t>
   </si>
@@ -39,6 +40,39 @@
   </si>
   <si>
     <t># W-samples</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>statistical</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>top document included?</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -74,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,6 +144,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing LR models</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -200,7 +260,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49099999999999999</c:v>
+                  <c:v>0.47099999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,7 +533,905 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LR models</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># W-samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UBLR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MI-UBLR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D797-4C89-809F-F1909CA426C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UBLR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MI-UBLR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D797-4C89-809F-F1909CA426C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="549010448"/>
+        <c:axId val="549007824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="549010448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549007824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549007824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549010448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing LR models</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># W-samples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UBLR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MI-UBLR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CCF6-418F-9A85-AFFA96DB2AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>BLR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UBLR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MI-UBLR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CCF6-418F-9A85-AFFA96DB2AC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="452561728"/>
+        <c:axId val="452562056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="452561728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452562056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452562056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452561728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1016,6 +1974,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1043,6 +3007,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1314,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,8 +3373,8 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>491/1000</f>
-        <v>0.49099999999999999</v>
+        <f>471/1000</f>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1365,10 +3389,214 @@
       </c>
       <c r="F3" s="1">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D11">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>0.487</f>
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="D18">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>0.929</f>
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InferenceSemantics/LinearRegression/results/Book1.xlsx
+++ b/InferenceSemantics/LinearRegression/results/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>BLR</t>
   </si>
@@ -69,10 +69,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>top document included?</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>top returned</t>
   </si>
 </sst>
 </file>
@@ -3340,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,10 +3480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,7 +3491,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3524,11 +3521,17 @@
       <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3541,11 +3544,17 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3558,11 +3567,17 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3575,11 +3590,17 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3592,8 +3613,14 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/InferenceSemantics/LinearRegression/results/Book1.xlsx
+++ b/InferenceSemantics/LinearRegression/results/Book1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>BLR</t>
   </si>
@@ -69,7 +69,13 @@
     <t>D3</t>
   </si>
   <si>
-    <t>top returned</t>
+    <t>D1-top</t>
+  </si>
+  <si>
+    <t>D2-top</t>
+  </si>
+  <si>
+    <t>D3-top</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -463,7 +468,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -580,7 +584,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -877,7 +880,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -984,7 +986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1268,6 +1269,699 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="452561728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> top-k against all matches</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>algorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D1-top</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2-top</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D3-top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8B8-4B97-AFDA-223FDCC8DEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>artificial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D1-top</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2-top</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D3-top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8B8-4B97-AFDA-223FDCC8DEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D1-top</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2-top</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D3-top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D8B8-4B97-AFDA-223FDCC8DEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>automatic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D1-top</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2-top</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D3-top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D8B8-4B97-AFDA-223FDCC8DEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>statistical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>D1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D1-top</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D2-top</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D3-top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D8B8-4B97-AFDA-223FDCC8DEE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="443922864"/>
+        <c:axId val="443920568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443922864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443920568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443920568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443922864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,6 +2162,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2475,6 +3209,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3064,6 +4301,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566736</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3480,10 +4752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,87 +4763,70 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
       <c r="C3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3579,51 +4834,75 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>